--- a/sample-suspension/v2.0.0/sample-suspension-v2.0.0.xlsx
+++ b/sample-suspension/v2.0.0/sample-suspension-v2.0.0.xlsx
@@ -8,14 +8,15 @@
   <sheets>
     <sheet name="Sample Suspension" r:id="rId3" sheetId="1"/>
     <sheet name="source_storage_duration_unit" r:id="rId4" sheetId="2"/>
-    <sheet name="preparation_medium" r:id="rId5" sheetId="3"/>
-    <sheet name="preparation_condition" r:id="rId6" sheetId="4"/>
-    <sheet name="processing_time_unit" r:id="rId7" sheetId="5"/>
-    <sheet name="storage_medium" r:id="rId8" sheetId="6"/>
-    <sheet name="storage_method" r:id="rId9" sheetId="7"/>
-    <sheet name="suspension_entity_type" r:id="rId10" sheetId="8"/>
-    <sheet name="is_suspension_enriched" r:id="rId11" sheetId="9"/>
-    <sheet name=".metadata" r:id="rId12" sheetId="10"/>
+    <sheet name="tissue_weight_unit" r:id="rId5" sheetId="3"/>
+    <sheet name="preparation_medium" r:id="rId6" sheetId="4"/>
+    <sheet name="preparation_condition" r:id="rId7" sheetId="5"/>
+    <sheet name="processing_time_unit" r:id="rId8" sheetId="6"/>
+    <sheet name="storage_medium" r:id="rId9" sheetId="7"/>
+    <sheet name="storage_method" r:id="rId10" sheetId="8"/>
+    <sheet name="suspension_entity_type" r:id="rId11" sheetId="9"/>
+    <sheet name="is_suspension_enriched" r:id="rId12" sheetId="10"/>
+    <sheet name=".metadata" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
@@ -46,37 +47,47 @@
     </comment>
     <comment ref="D1" authorId="1">
       <text>
+        <t>The weight of a tissue block or the piece of tissue used in a suspension.</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1">
+      <text>
+        <t>The tissue weight unit of measurement</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="1">
+      <text>
         <t>(Required) The medium used during the sample preparation</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="G1" authorId="1">
       <text>
         <t>(Required) The condition by which the preparation occurred, such as was the
 sample placed in dry ice during the preparation.</t>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="H1" authorId="1">
       <text>
         <t>How long the tissue was being handled before the initial preservation</t>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="I1" authorId="1">
       <text>
         <t>The time unit of measurement</t>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="J1" authorId="1">
       <text>
         <t>(Required) What was the sample preserved in.</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="1">
+    <comment ref="K1" authorId="1">
       <text>
         <t>(Required) The method by which the sample was stored, after preparation and
 before the assay was performed.</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="1">
+    <comment ref="L1" authorId="1">
       <text>
         <t>For example, RIN: 8.7. For suspensions, measured by visual inspection prior to
 cell lysis or defined by known parameters such as wells with several cells or no
@@ -84,33 +95,33 @@
 specificity such as "debris", "clump", "low clump".</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="1">
+    <comment ref="M1" authorId="1">
       <text>
         <t>(Required) The type of single cell entity derived from isolation protocol.</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="1">
+    <comment ref="N1" authorId="1">
       <text>
         <t>(Required) Total number of cell/nuclei yielded post dissociation and enrichment.</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="1">
+    <comment ref="O1" authorId="1">
       <text>
         <t>(Required) Was the cell/nuclei population enriched?</t>
       </text>
     </comment>
-    <comment ref="N1" authorId="1">
+    <comment ref="P1" authorId="1">
       <text>
         <t>If the suspension was enriched, then this is the target of the enrichment.</t>
       </text>
     </comment>
-    <comment ref="O1" authorId="1">
+    <comment ref="Q1" authorId="1">
       <text>
         <t>Miscellaneous details about the sample, not captured in the existing metadata
 fields.</t>
       </text>
     </comment>
-    <comment ref="P1" authorId="1">
+    <comment ref="R1" authorId="1">
       <text>
         <t>The string that serves as the definitive identifier for the metadata schema
 version and is readily interpretable by computers for data validation and
@@ -122,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="130">
   <si>
     <t>sample_id</t>
   </si>
@@ -163,6 +174,42 @@
     <t>http://purl.obolibrary.org/obo/UO_0000031</t>
   </si>
   <si>
+    <t>tissue_weight_value</t>
+  </si>
+  <si>
+    <t>tissue_weight_unit</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000024</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000022</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000009</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000021</t>
+  </si>
+  <si>
     <t>preparation_medium</t>
   </si>
   <si>
@@ -172,6 +219,18 @@
     <t>http://purl.obolibrary.org/obo/OBI_0100046</t>
   </si>
   <si>
+    <t>NBF (Neutral Buffered Formalin)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
+  </si>
+  <si>
+    <t>PLP (Periodate-lysine-paraformaldehyde)</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/MESH/C046311</t>
+  </si>
+  <si>
     <t>Ethanol</t>
   </si>
   <si>
@@ -190,48 +249,42 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
   </si>
   <si>
-    <t>Neutral Buffered Formalin (NBF)</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
-  </si>
-  <si>
-    <t>PFA</t>
+    <t>Inflated (Agarose)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
+  </si>
+  <si>
+    <t>MACS tissue storage solution</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000105</t>
+  </si>
+  <si>
+    <t>Fresh frozen CMC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000130</t>
+  </si>
+  <si>
+    <t>Inflated (OCT)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000123</t>
+  </si>
+  <si>
+    <t>Fresh frozen gelatin</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000198</t>
+  </si>
+  <si>
+    <t>PFA (Paraformaldehyde)</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_61538</t>
   </si>
   <si>
-    <t>Inflated (Agarose)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
-  </si>
-  <si>
-    <t>MACS tissue storage solution</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000105</t>
-  </si>
-  <si>
-    <t>Fresh frozen CMC</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000130</t>
-  </si>
-  <si>
-    <t>Inflated (OCT)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000123</t>
-  </si>
-  <si>
-    <t>Fresh frozen gelatin</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000198</t>
-  </si>
-  <si>
     <t>Fixed frozen OCT (Formalin, sucrose protected)</t>
   </si>
   <si>
@@ -376,24 +429,24 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000135</t>
   </si>
   <si>
-    <t>Paraffin embedded (FFPE)</t>
+    <t>DMSO (with serum)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
+  </si>
+  <si>
+    <t>Gelatin</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
+  </si>
+  <si>
+    <t>FFPE (Paraffin embedded)</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C143028</t>
   </si>
   <si>
-    <t>DMSO (with serum)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
-  </si>
-  <si>
-    <t>Gelatin</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
-  </si>
-  <si>
     <t>CMC</t>
   </si>
   <si>
@@ -463,7 +516,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-03T09:15:26-07:00</t>
+    <t>2023-08-04T07:35:48-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -522,11 +575,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -553,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -562,19 +617,21 @@
     <col min="1" max="1" style="2" width="10.0078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" style="3" width="28.5625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" style="4" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="19.5625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="20.66015625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="21.1484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="19.98828125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="15.8984375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="15.46875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="14.1875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="21.76171875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="22.96875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="22.08203125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="25.9140625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="5.94921875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="18.703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="17.54296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="19.5625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="20.66015625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="21.1484375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="19.98828125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="15.8984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="15.46875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="14.1875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="21.76171875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="22.96875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="22.08203125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="25.9140625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="5.94921875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="19.61328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -591,49 +648,55 @@
         <v>13</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>120</v>
       </c>
     </row>
     <row r="2">
-      <c r="P2" t="s">
-        <v>107</v>
+      <c r="R2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="11">
+  <dataValidations count="13">
     <dataValidation type="decimal" operator="greaterThan" sqref="B2:B1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
@@ -641,33 +704,40 @@
     <dataValidation type="list" sqref="C2:C1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_medium'!$A$1:$A$21</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_condition'!$A$1:$A$10</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThan" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
+    <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'tissue_weight_unit'!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'preparation_medium'!$A$1:$A$22</formula1>
+    </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'processing_time_unit'!$A$1:$A$5</formula1>
+      <formula1>'preparation_condition'!$A$1:$A$10</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'storage_medium'!$A$1:$A$18</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'storage_method'!$A$1:$A$11</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'suspension_entity_type'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThan" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
+    <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'processing_time_unit'!$A$1:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'storage_medium'!$A$1:$A$18</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="K2:K1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'storage_method'!$A$1:$A$11</formula1>
+    </dataValidation>
     <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>'suspension_entity_type'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+      <formula1>0</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_suspension_enriched'!$A$1:$A$2</formula1>
     </dataValidation>
   </dataValidations>
@@ -678,6 +748,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -693,30 +792,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +878,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -787,170 +886,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -959,6 +930,195 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -968,82 +1128,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1104,7 +1264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -1114,146 +1274,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1261,7 +1421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1271,119 +1431,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1401,18 +1532,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/sample-suspension/v2.0.0/sample-suspension-v2.0.0.xlsx
+++ b/sample-suspension/v2.0.0/sample-suspension-v2.0.0.xlsx
@@ -516,7 +516,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-04T07:35:48-07:00</t>
+    <t>2023-08-11T13:11:59-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -697,14 +697,14 @@
     </row>
   </sheetData>
   <dataValidations count="13">
-    <dataValidation type="decimal" operator="greaterThan" sqref="B2:B1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="B2:B1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="C2:C1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
@@ -717,7 +717,7 @@
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_condition'!$A$1:$A$10</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
@@ -733,7 +733,7 @@
     <dataValidation type="list" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'suspension_entity_type'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>

--- a/sample-suspension/v2.0.0/sample-suspension-v2.0.0.xlsx
+++ b/sample-suspension/v2.0.0/sample-suspension-v2.0.0.xlsx
@@ -123,8 +123,8 @@
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>The string that serves as the definitive identifier for the metadata schema
-version and is readily interpretable by computers for data validation and
+        <t>(Required) The string that serves as the definitive identifier for the metadata
+schema version and is readily interpretable by computers for data validation and
 processing.</t>
       </text>
     </comment>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="128">
   <si>
     <t>sample_id</t>
   </si>
@@ -180,12 +180,6 @@
     <t>tissue_weight_unit</t>
   </si>
   <si>
-    <t>ng</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000024</t>
-  </si>
-  <si>
     <t>ug</t>
   </si>
   <si>
@@ -225,36 +219,36 @@
     <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
   </si>
   <si>
-    <t>PLP (Periodate-lysine-paraformaldehyde)</t>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
+  </si>
+  <si>
+    <t>Allprotect tissue reagent (ALL)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000118</t>
+  </si>
+  <si>
+    <t>CLARITY hydrogel</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
+  </si>
+  <si>
+    <t>Inflated (Agarose)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
+  </si>
+  <si>
+    <t>PLP (Periodate-Lysine-Paraformaldehyde)</t>
   </si>
   <si>
     <t>http://purl.bioontology.org/ontology/MESH/C046311</t>
   </si>
   <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_16236</t>
-  </si>
-  <si>
-    <t>Allprotect tissue reagent (ALL)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000118</t>
-  </si>
-  <si>
-    <t>CLARITY hydrogel</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000134</t>
-  </si>
-  <si>
-    <t>Inflated (Agarose)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000106</t>
-  </si>
-  <si>
     <t>MACS tissue storage solution</t>
   </si>
   <si>
@@ -372,6 +366,72 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C185338</t>
   </si>
   <si>
+    <t>Frozen at -20 degrees celsius</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000107</t>
+  </si>
+  <si>
+    <t>Frozen on dry ice</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C187069</t>
+  </si>
+  <si>
+    <t>processing_time_value</t>
+  </si>
+  <si>
+    <t>processing_time_unit</t>
+  </si>
+  <si>
+    <t>storage_medium</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63523</t>
+  </si>
+  <si>
+    <t>DMSO (no serum)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000115</t>
+  </si>
+  <si>
+    <t>Tris-EDTA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000135</t>
+  </si>
+  <si>
+    <t>Gelatin</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
+  </si>
+  <si>
+    <t>DMSO (serum)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
+  </si>
+  <si>
+    <t>FFPE (Paraffin embedded)</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C143028</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C83594</t>
+  </si>
+  <si>
+    <t>storage_method</t>
+  </si>
+  <si>
     <t>Incubated at 37 degrees celsius</t>
   </si>
   <si>
@@ -384,78 +444,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000132</t>
   </si>
   <si>
-    <t>Frozen at -20 degrees celsius</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000107</t>
-  </si>
-  <si>
-    <t>Frozen on dry ice</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C187069</t>
-  </si>
-  <si>
     <t>Stored in refrigerator</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000104</t>
   </si>
   <si>
-    <t>processing_time_value</t>
-  </si>
-  <si>
-    <t>processing_time_unit</t>
-  </si>
-  <si>
-    <t>storage_medium</t>
-  </si>
-  <si>
-    <t>OCT</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63523</t>
-  </si>
-  <si>
-    <t>DMSO (no serum)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000115</t>
-  </si>
-  <si>
-    <t>Tris-EDTA</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000135</t>
-  </si>
-  <si>
-    <t>DMSO (with serum)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000125</t>
-  </si>
-  <si>
-    <t>Gelatin</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65802</t>
-  </si>
-  <si>
-    <t>FFPE (Paraffin embedded)</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C143028</t>
-  </si>
-  <si>
-    <t>CMC</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C83594</t>
-  </si>
-  <si>
-    <t>storage_method</t>
-  </si>
-  <si>
     <t>quality_criteria</t>
   </si>
   <si>
@@ -516,7 +510,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-11T13:11:59-07:00</t>
+    <t>2023-09-08T20:49:50-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -651,48 +645,48 @@
         <v>14</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K1" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>105</v>
+      </c>
+      <c r="M1" t="s" s="1">
         <v>106</v>
       </c>
-      <c r="L1" t="s" s="1">
-        <v>107</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>108</v>
-      </c>
       <c r="N1" t="s" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P1" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>117</v>
+      </c>
+      <c r="R1" t="s" s="1">
         <v>118</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>119</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="R2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -709,20 +703,20 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'tissue_weight_unit'!$A$1:$A$5</formula1>
+      <formula1>'tissue_weight_unit'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_medium'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_condition'!$A$1:$A$10</formula1>
+      <formula1>'preparation_condition'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'processing_time_unit'!$A$1:$A$5</formula1>
+      <formula1>'processing_time_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'storage_medium'!$A$1:$A$18</formula1>
@@ -757,18 +751,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -792,30 +786,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>124</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>125</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>127</v>
-      </c>
-      <c r="D2" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -878,7 +872,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -914,14 +908,6 @@
       </c>
       <c r="B4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -939,178 +925,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1120,7 +1106,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1128,82 +1114,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1213,7 +1175,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1229,33 +1191,17 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1274,146 +1220,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1431,90 +1377,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1532,18 +1478,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
